--- a/public/members.xlsx
+++ b/public/members.xlsx
@@ -20,21 +20,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Mobile Num (09123456789)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tags</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pastor,VGL</t>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact Number (09123456789)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membership Card Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expiry Date (2022/12/31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beauty Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loyalty Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Person One</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p1@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Branch 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/02/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Person Two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p2@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Branch 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/12/31</t>
   </si>
 </sst>
 </file>
@@ -44,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -65,6 +107,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,8 +158,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -131,15 +184,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -152,19 +209,88 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>9155416177</v>
-      </c>
-      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>9156781234</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>12345678</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>9164736615</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>23456789</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="p1@example.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="p2@example.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/public/members.xlsx
+++ b/public/members.xlsx
@@ -10,17 +10,17 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Email</t>
   </si>
   <si>
-    <t xml:space="preserve">Contact Number (09123456789)</t>
+    <t xml:space="preserve">Contact Number (9123456789)</t>
   </si>
   <si>
     <t xml:space="preserve">Address</t>
@@ -40,43 +40,13 @@
     <t xml:space="preserve">Membership Card Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Expiry Date (2022/12/31)</t>
+    <t xml:space="preserve">Expiry Date</t>
   </si>
   <si>
     <t xml:space="preserve">Beauty Bank</t>
   </si>
   <si>
     <t xml:space="preserve">Loyalty Points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Person One</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p1@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branch 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024/02/22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Person Two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p2@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branch 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/12/31</t>
   </si>
 </sst>
 </file>
@@ -86,11 +56,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -109,22 +79,34 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="Helvetica Neue"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F4"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -132,6 +114,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -158,13 +147,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -176,6 +185,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFF5F5F4"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -184,22 +253,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.01"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -229,68 +298,156 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>9156781234</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>12345678</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>9164736615</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>23456789</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>6</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="p1@example.com"/>
-    <hyperlink ref="B3" r:id="rId2" display="p2@example.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
